--- a/TESTE GERADOR AUTOMÁTICO DE FOLHA/1 - JANEIRO 2024.xlsx
+++ b/TESTE GERADOR AUTOMÁTICO DE FOLHA/1 - JANEIRO 2024.xlsx
@@ -760,11 +760,31 @@
           <t>SEGUNDA-FEIRA</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>FERIADO</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>FERIADO</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>FERIADO</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>FERIADO</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>FERIADO</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="17.45" customHeight="1">
       <c r="C8" s="1" t="inlineStr">

--- a/TESTE GERADOR AUTOMÁTICO DE FOLHA/1 - JANEIRO 2024.xlsx
+++ b/TESTE GERADOR AUTOMÁTICO DE FOLHA/1 - JANEIRO 2024.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="145621" fullCalcOnLoad="1"/>
@@ -18,16 +18,9 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -57,14 +50,6 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="9"/>
       <scheme val="minor"/>
@@ -268,39 +253,35 @@
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -320,32 +301,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -359,6 +337,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -645,8 +630,8 @@
   </sheetPr>
   <dimension ref="C1:I43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" showWhiteSpace="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" showWhiteSpace="0" topLeftCell="B25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="13.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -660,830 +645,830 @@
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1">
-      <c r="C1" s="27" t="n"/>
+      <c r="C1" s="22" t="n"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="C2" s="28" t="inlineStr">
+      <c r="C2" s="23" t="inlineStr">
         <is>
           <t>FOLHA DE PONTO</t>
         </is>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="C3" s="14" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>PERÍODO: 01 A 31 DE JANEIRO DE 2024</t>
         </is>
       </c>
-      <c r="D3" s="9" t="n"/>
-      <c r="E3" s="9" t="n"/>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" s="9" t="n"/>
-      <c r="H3" s="9" t="n"/>
-      <c r="I3" s="9" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="C4" s="23" t="inlineStr">
+      <c r="C4" s="19" t="inlineStr">
         <is>
           <t>NOME:</t>
         </is>
       </c>
-      <c r="D4" s="20" t="n"/>
-      <c r="E4" s="21" t="n"/>
-      <c r="F4" s="21" t="n"/>
-      <c r="G4" s="21" t="n"/>
-      <c r="H4" s="22" t="n"/>
-      <c r="I4" s="24" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="17" t="n"/>
+      <c r="F4" s="17" t="n"/>
+      <c r="G4" s="17" t="n"/>
+      <c r="H4" s="18" t="n"/>
+      <c r="I4" s="20" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="C5" s="15" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>CARGO:</t>
         </is>
       </c>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="17" t="n"/>
-      <c r="F5" s="17" t="n"/>
-      <c r="G5" s="25" t="inlineStr">
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="36" t="inlineStr">
         <is>
           <t>MATRÍCULA:</t>
         </is>
       </c>
-      <c r="H5" s="18" t="n"/>
-      <c r="I5" s="19" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="15" t="n"/>
     </row>
     <row r="6" ht="33.75" customHeight="1">
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>DATA ATUAL</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>DIA DA SEMANA</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DE ENTRADA</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>INTERVALO (SAÍDA)</t>
         </is>
       </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>INTERVALO (RETORNO)</t>
         </is>
       </c>
-      <c r="H6" s="7" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DE SAÍDA</t>
         </is>
       </c>
-      <c r="I6" s="7" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>RUBRICA</t>
         </is>
       </c>
     </row>
     <row r="7" ht="17.45" customHeight="1">
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="32" t="inlineStr">
         <is>
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="33" t="inlineStr">
         <is>
           <t>SEGUNDA-FEIRA</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="33" t="inlineStr">
         <is>
           <t>FERIADO</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="33" t="inlineStr">
         <is>
           <t>FERIADO</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="33" t="inlineStr">
         <is>
           <t>FERIADO</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H7" s="33" t="inlineStr">
         <is>
           <t>FERIADO</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I7" s="33" t="inlineStr">
         <is>
           <t>FERIADO</t>
         </is>
       </c>
     </row>
     <row r="8" ht="17.45" customHeight="1">
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="32" t="inlineStr">
         <is>
           <t>02/01/2024</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="33" t="inlineStr">
         <is>
           <t>TERÇA-FEIRA</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
+      <c r="E8" s="33" t="n"/>
+      <c r="F8" s="33" t="n"/>
+      <c r="G8" s="33" t="n"/>
+      <c r="H8" s="33" t="n"/>
+      <c r="I8" s="33" t="n"/>
     </row>
     <row r="9" ht="17.45" customHeight="1">
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="32" t="inlineStr">
         <is>
           <t>03/01/2024</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="33" t="inlineStr">
         <is>
           <t>QUARTA-FEIRA</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
+      <c r="E9" s="33" t="n"/>
+      <c r="F9" s="33" t="n"/>
+      <c r="G9" s="33" t="n"/>
+      <c r="H9" s="33" t="n"/>
+      <c r="I9" s="33" t="n"/>
     </row>
     <row r="10" ht="17.45" customHeight="1">
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="32" t="inlineStr">
         <is>
           <t>04/01/2024</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="33" t="inlineStr">
         <is>
           <t>QUINTA-FEIRA</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
+      <c r="E10" s="33" t="n"/>
+      <c r="F10" s="33" t="n"/>
+      <c r="G10" s="33" t="n"/>
+      <c r="H10" s="33" t="n"/>
+      <c r="I10" s="33" t="n"/>
     </row>
     <row r="11" ht="17.45" customHeight="1">
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" s="32" t="inlineStr">
         <is>
           <t>05/01/2024</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="33" t="inlineStr">
         <is>
           <t>SEXTA-FEIRA</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
+      <c r="E11" s="33" t="n"/>
+      <c r="F11" s="33" t="n"/>
+      <c r="G11" s="33" t="n"/>
+      <c r="H11" s="33" t="n"/>
+      <c r="I11" s="33" t="n"/>
     </row>
     <row r="12" ht="17.45" customHeight="1">
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" s="32" t="inlineStr">
         <is>
           <t>06/01/2024</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="D12" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="E12" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="F12" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="G12" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="I12" s="33" t="inlineStr">
         <is>
           <t>SÁBADO</t>
         </is>
       </c>
     </row>
     <row r="13" ht="17.45" customHeight="1">
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" s="32" t="inlineStr">
         <is>
           <t>07/01/2024</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="D13" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="E13" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="F13" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="G13" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="H13" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="I13" s="33" t="inlineStr">
         <is>
           <t>DOMINGO</t>
         </is>
       </c>
     </row>
     <row r="14" ht="17.45" customHeight="1">
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" s="32" t="inlineStr">
         <is>
           <t>08/01/2024</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="33" t="inlineStr">
         <is>
           <t>SEGUNDA-FEIRA</t>
         </is>
       </c>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
+      <c r="E14" s="33" t="n"/>
+      <c r="F14" s="33" t="n"/>
+      <c r="G14" s="33" t="n"/>
+      <c r="H14" s="33" t="n"/>
+      <c r="I14" s="33" t="n"/>
     </row>
     <row r="15" ht="17.45" customHeight="1">
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" s="32" t="inlineStr">
         <is>
           <t>09/01/2024</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="33" t="inlineStr">
         <is>
           <t>TERÇA-FEIRA</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
+      <c r="E15" s="33" t="n"/>
+      <c r="F15" s="33" t="n"/>
+      <c r="G15" s="33" t="n"/>
+      <c r="H15" s="33" t="n"/>
+      <c r="I15" s="33" t="n"/>
     </row>
     <row r="16" ht="17.45" customHeight="1">
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" s="32" t="inlineStr">
         <is>
           <t>10/01/2024</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="33" t="inlineStr">
         <is>
           <t>QUARTA-FEIRA</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="E16" s="33" t="n"/>
+      <c r="F16" s="33" t="n"/>
+      <c r="G16" s="33" t="n"/>
+      <c r="H16" s="33" t="n"/>
+      <c r="I16" s="33" t="n"/>
     </row>
     <row r="17" ht="17.45" customHeight="1">
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" s="32" t="inlineStr">
         <is>
           <t>11/01/2024</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="33" t="inlineStr">
         <is>
           <t>QUINTA-FEIRA</t>
         </is>
       </c>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
+      <c r="E17" s="33" t="n"/>
+      <c r="F17" s="33" t="n"/>
+      <c r="G17" s="33" t="n"/>
+      <c r="H17" s="33" t="n"/>
+      <c r="I17" s="33" t="n"/>
     </row>
     <row r="18" ht="17.45" customHeight="1">
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" s="32" t="inlineStr">
         <is>
           <t>12/01/2024</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="33" t="inlineStr">
         <is>
           <t>SEXTA-FEIRA</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
+      <c r="E18" s="33" t="n"/>
+      <c r="F18" s="33" t="n"/>
+      <c r="G18" s="33" t="n"/>
+      <c r="H18" s="33" t="n"/>
+      <c r="I18" s="33" t="n"/>
     </row>
     <row r="19" ht="17.45" customHeight="1">
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C19" s="32" t="inlineStr">
         <is>
           <t>13/01/2024</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="D19" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="E19" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="F19" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="G19" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="H19" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="I19" s="33" t="inlineStr">
         <is>
           <t>SÁBADO</t>
         </is>
       </c>
     </row>
     <row r="20" ht="17.45" customHeight="1">
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C20" s="32" t="inlineStr">
         <is>
           <t>14/01/2024</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="D20" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="E20" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="F20" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="G20" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="H20" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="I20" s="33" t="inlineStr">
         <is>
           <t>DOMINGO</t>
         </is>
       </c>
     </row>
     <row r="21" ht="17.45" customHeight="1">
-      <c r="C21" s="1" t="inlineStr">
+      <c r="C21" s="32" t="inlineStr">
         <is>
           <t>15/01/2024</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="33" t="inlineStr">
         <is>
           <t>SEGUNDA-FEIRA</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
+      <c r="E21" s="33" t="n"/>
+      <c r="F21" s="33" t="n"/>
+      <c r="G21" s="33" t="n"/>
+      <c r="H21" s="33" t="n"/>
+      <c r="I21" s="33" t="n"/>
     </row>
     <row r="22" ht="17.45" customHeight="1">
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C22" s="32" t="inlineStr">
         <is>
           <t>16/01/2024</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" s="33" t="inlineStr">
         <is>
           <t>TERÇA-FEIRA</t>
         </is>
       </c>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
+      <c r="E22" s="33" t="n"/>
+      <c r="F22" s="33" t="n"/>
+      <c r="G22" s="33" t="n"/>
+      <c r="H22" s="33" t="n"/>
+      <c r="I22" s="33" t="n"/>
     </row>
     <row r="23" ht="17.45" customHeight="1">
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" s="32" t="inlineStr">
         <is>
           <t>17/01/2024</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="33" t="inlineStr">
         <is>
           <t>QUARTA-FEIRA</t>
         </is>
       </c>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
+      <c r="E23" s="33" t="n"/>
+      <c r="F23" s="33" t="n"/>
+      <c r="G23" s="33" t="n"/>
+      <c r="H23" s="33" t="n"/>
+      <c r="I23" s="33" t="n"/>
     </row>
     <row r="24" ht="17.45" customHeight="1">
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C24" s="32" t="inlineStr">
         <is>
           <t>18/01/2024</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" s="33" t="inlineStr">
         <is>
           <t>QUINTA-FEIRA</t>
         </is>
       </c>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
+      <c r="E24" s="33" t="n"/>
+      <c r="F24" s="33" t="n"/>
+      <c r="G24" s="33" t="n"/>
+      <c r="H24" s="33" t="n"/>
+      <c r="I24" s="33" t="n"/>
     </row>
     <row r="25" ht="17.45" customHeight="1">
-      <c r="C25" s="1" t="inlineStr">
+      <c r="C25" s="32" t="inlineStr">
         <is>
           <t>19/01/2024</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="33" t="inlineStr">
         <is>
           <t>SEXTA-FEIRA</t>
         </is>
       </c>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
+      <c r="E25" s="33" t="n"/>
+      <c r="F25" s="33" t="n"/>
+      <c r="G25" s="33" t="n"/>
+      <c r="H25" s="33" t="n"/>
+      <c r="I25" s="33" t="n"/>
     </row>
     <row r="26" ht="17.45" customHeight="1">
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C26" s="32" t="inlineStr">
         <is>
           <t>20/01/2024</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
+      <c r="D26" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="E26" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="F26" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="G26" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="H26" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="I26" s="33" t="inlineStr">
         <is>
           <t>SÁBADO</t>
         </is>
       </c>
     </row>
     <row r="27" ht="17.45" customHeight="1">
-      <c r="C27" s="1" t="inlineStr">
+      <c r="C27" s="32" t="inlineStr">
         <is>
           <t>21/01/2024</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="D27" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="E27" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="F27" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="G27" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="H27" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="I27" s="33" t="inlineStr">
         <is>
           <t>DOMINGO</t>
         </is>
       </c>
     </row>
     <row r="28" ht="17.45" customHeight="1">
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C28" s="32" t="inlineStr">
         <is>
           <t>22/01/2024</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" s="33" t="inlineStr">
         <is>
           <t>SEGUNDA-FEIRA</t>
         </is>
       </c>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
+      <c r="E28" s="33" t="n"/>
+      <c r="F28" s="33" t="n"/>
+      <c r="G28" s="33" t="n"/>
+      <c r="H28" s="33" t="n"/>
+      <c r="I28" s="33" t="n"/>
     </row>
     <row r="29" ht="17.45" customHeight="1">
-      <c r="C29" s="1" t="inlineStr">
+      <c r="C29" s="32" t="inlineStr">
         <is>
           <t>23/01/2024</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" s="33" t="inlineStr">
         <is>
           <t>TERÇA-FEIRA</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
+      <c r="E29" s="33" t="n"/>
+      <c r="F29" s="33" t="n"/>
+      <c r="G29" s="33" t="n"/>
+      <c r="H29" s="33" t="n"/>
+      <c r="I29" s="33" t="n"/>
     </row>
     <row r="30" ht="17.45" customHeight="1">
-      <c r="C30" s="1" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>24/01/2024</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" s="33" t="inlineStr">
         <is>
           <t>QUARTA-FEIRA</t>
         </is>
       </c>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
+      <c r="E30" s="33" t="n"/>
+      <c r="F30" s="33" t="n"/>
+      <c r="G30" s="33" t="n"/>
+      <c r="H30" s="33" t="n"/>
+      <c r="I30" s="33" t="n"/>
     </row>
     <row r="31" ht="17.45" customHeight="1">
-      <c r="C31" s="1" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>25/01/2024</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D31" s="33" t="inlineStr">
         <is>
           <t>QUINTA-FEIRA</t>
         </is>
       </c>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
+      <c r="E31" s="33" t="n"/>
+      <c r="F31" s="33" t="n"/>
+      <c r="G31" s="33" t="n"/>
+      <c r="H31" s="33" t="n"/>
+      <c r="I31" s="33" t="n"/>
     </row>
     <row r="32" ht="17.45" customHeight="1">
-      <c r="C32" s="1" t="inlineStr">
+      <c r="C32" s="32" t="inlineStr">
         <is>
           <t>26/01/2024</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D32" s="33" t="inlineStr">
         <is>
           <t>SEXTA-FEIRA</t>
         </is>
       </c>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
+      <c r="E32" s="33" t="n"/>
+      <c r="F32" s="33" t="n"/>
+      <c r="G32" s="33" t="n"/>
+      <c r="H32" s="33" t="n"/>
+      <c r="I32" s="33" t="n"/>
     </row>
     <row r="33" ht="17.45" customHeight="1">
-      <c r="C33" s="1" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>27/01/2024</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
+      <c r="D33" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="E33" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="F33" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="G33" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="H33" s="33" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="I33" s="33" t="inlineStr">
         <is>
           <t>SÁBADO</t>
         </is>
       </c>
     </row>
     <row r="34" ht="17.45" customHeight="1">
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C34" s="32" t="inlineStr">
         <is>
           <t>28/01/2024</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
+      <c r="D34" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="E34" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="F34" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="G34" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="H34" s="33" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="I34" s="33" t="inlineStr">
         <is>
           <t>DOMINGO</t>
         </is>
       </c>
     </row>
     <row r="35" ht="17.45" customHeight="1">
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C35" s="32" t="inlineStr">
         <is>
           <t>29/01/2024</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" s="33" t="inlineStr">
         <is>
           <t>SEGUNDA-FEIRA</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
-      <c r="H35" s="3" t="n"/>
-      <c r="I35" s="3" t="n"/>
+      <c r="E35" s="34" t="n"/>
+      <c r="F35" s="34" t="n"/>
+      <c r="G35" s="34" t="n"/>
+      <c r="H35" s="34" t="n"/>
+      <c r="I35" s="34" t="n"/>
     </row>
     <row r="36" ht="17.45" customHeight="1">
-      <c r="C36" s="1" t="inlineStr">
+      <c r="C36" s="32" t="inlineStr">
         <is>
           <t>30/01/2024</t>
         </is>
       </c>
-      <c r="D36" s="8" t="inlineStr">
+      <c r="D36" s="35" t="inlineStr">
         <is>
           <t>TERÇA-FEIRA</t>
         </is>
       </c>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
+      <c r="E36" s="33" t="n"/>
+      <c r="F36" s="33" t="n"/>
+      <c r="G36" s="33" t="n"/>
+      <c r="H36" s="33" t="n"/>
+      <c r="I36" s="33" t="n"/>
     </row>
     <row r="37" ht="17.45" customHeight="1">
-      <c r="C37" s="1" t="inlineStr">
+      <c r="C37" s="32" t="inlineStr">
         <is>
           <t>31/01/2024</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D37" s="33" t="inlineStr">
         <is>
           <t>QUARTA-FEIRA</t>
         </is>
       </c>
-      <c r="E37" s="8" t="n"/>
-      <c r="F37" s="8" t="n"/>
-      <c r="G37" s="8" t="n"/>
-      <c r="H37" s="8" t="n"/>
-      <c r="I37" s="8" t="n"/>
+      <c r="E37" s="35" t="n"/>
+      <c r="F37" s="35" t="n"/>
+      <c r="G37" s="35" t="n"/>
+      <c r="H37" s="35" t="n"/>
+      <c r="I37" s="35" t="n"/>
     </row>
     <row r="38">
-      <c r="C38" s="5" t="n"/>
-      <c r="D38" s="4" t="n"/>
-      <c r="E38" s="4" t="n"/>
-      <c r="F38" s="4" t="n"/>
-      <c r="G38" s="4" t="n"/>
-      <c r="H38" s="4" t="n"/>
-      <c r="I38" s="6" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+      <c r="I38" s="3" t="n"/>
     </row>
     <row r="39" ht="10.5" customHeight="1">
-      <c r="C39" s="13" t="inlineStr">
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve"> __________________________________________</t>
         </is>
       </c>
-      <c r="D39" s="11" t="n"/>
-      <c r="E39" s="10" t="n"/>
-      <c r="F39" s="4" t="n"/>
-      <c r="G39" s="12" t="inlineStr">
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="6" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="8" t="inlineStr">
         <is>
           <t>________________________________________</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n"/>
-      <c r="I39" s="6" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="3" t="n"/>
     </row>
     <row r="40" ht="11.25" customHeight="1">
-      <c r="C40" s="33" t="inlineStr">
+      <c r="C40" s="28" t="inlineStr">
         <is>
           <t>COLABORADOR(A)</t>
         </is>
@@ -1496,23 +1481,23 @@
       <c r="I40" s="38" t="n"/>
     </row>
     <row r="41" ht="3.75" customHeight="1">
-      <c r="C41" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+      <c r="C41" s="24" t="inlineStr">
+        <is>
+          <t>
 </t>
         </is>
       </c>
-      <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n"/>
-      <c r="F41" s="22" t="n"/>
-      <c r="G41" s="22" t="n"/>
-      <c r="H41" s="22" t="n"/>
-      <c r="I41" s="22" t="n"/>
+      <c r="D41" s="18" t="n"/>
+      <c r="E41" s="18" t="n"/>
+      <c r="F41" s="18" t="n"/>
+      <c r="G41" s="18" t="n"/>
+      <c r="H41" s="18" t="n"/>
+      <c r="I41" s="18" t="n"/>
     </row>
     <row r="42" ht="3.75" customHeight="1" thickBot="1">
-      <c r="C42" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
+      <c r="C42" s="26" t="inlineStr">
+        <is>
+          <t>
 </t>
         </is>
       </c>
@@ -1524,7 +1509,7 @@
       <c r="I42" s="39" t="n"/>
     </row>
     <row r="43" ht="12" customHeight="1">
-      <c r="C43" s="26" t="n"/>
+      <c r="C43" s="21" t="n"/>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -2135,13 +2120,13 @@
     <row r="650" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="C43:I43"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C42:I42"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:I40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
